--- a/templates/DATA.xlsx
+++ b/templates/DATA.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="93">
   <si>
     <t>Name</t>
   </si>
@@ -268,6 +268,30 @@
   </si>
   <si>
     <t>003dL000003lD4FQAU</t>
+  </si>
+  <si>
+    <t>001dL00000OW7IVQA1</t>
+  </si>
+  <si>
+    <t>003dL000007H474QAC</t>
+  </si>
+  <si>
+    <t>001dL00000OVnKAQA1</t>
+  </si>
+  <si>
+    <t>003dL000007GwB9QAK</t>
+  </si>
+  <si>
+    <t>001dL00000OVxMDQA1</t>
+  </si>
+  <si>
+    <t>003dL000007H61lQAC</t>
+  </si>
+  <si>
+    <t>001dL00000OWekTQAT</t>
+  </si>
+  <si>
+    <t>003dL000007H63NQAS</t>
   </si>
 </sst>
 </file>
@@ -277,7 +301,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="72">
+  <fonts count="80">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -288,6 +312,54 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -727,7 +799,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="80">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -804,6 +876,14 @@
     <xf numFmtId="49" fontId="69" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
     <xf numFmtId="164" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="71" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="73" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="75" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="77" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="79" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1027,7 +1107,7 @@
     <col min="4" max="4" bestFit="true" customWidth="true" width="14.9375"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="25.48828125"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="23.140625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="22.25390625"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="22.58984375"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1070,10 +1150,10 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
@@ -1093,10 +1173,10 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="G3" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/templates/DATA.xlsx
+++ b/templates/DATA.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="97">
   <si>
     <t>Name</t>
   </si>
@@ -292,6 +292,18 @@
   </si>
   <si>
     <t>003dL000007H63NQAS</t>
+  </si>
+  <si>
+    <t>001dL00000OY4JcQAL</t>
+  </si>
+  <si>
+    <t>003dL000007HQA9QAO</t>
+  </si>
+  <si>
+    <t>001dL00000OX4gaQAD</t>
+  </si>
+  <si>
+    <t>003dL000007HOd1QAG</t>
   </si>
 </sst>
 </file>
@@ -301,7 +313,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="80">
+  <fonts count="84">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -312,6 +324,30 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -799,7 +835,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="84">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -884,6 +920,10 @@
     <xf numFmtId="49" fontId="77" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
     <xf numFmtId="164" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="79" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="81" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="83" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1106,8 +1146,8 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.35546875"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="14.9375"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="25.48828125"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.140625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="22.58984375"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.69921875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="23.14453125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1150,10 +1190,10 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3">
@@ -1173,10 +1213,10 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/templates/DATA.xlsx
+++ b/templates/DATA.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="101">
   <si>
     <t>Name</t>
   </si>
@@ -304,6 +304,18 @@
   </si>
   <si>
     <t>003dL000007HOd1QAG</t>
+  </si>
+  <si>
+    <t>001dL00000OYlczQAD</t>
+  </si>
+  <si>
+    <t>003dL000007HYE9QAO</t>
+  </si>
+  <si>
+    <t>001dL00000OU23OQAT</t>
+  </si>
+  <si>
+    <t>003dL000007HO8RQAW</t>
   </si>
 </sst>
 </file>
@@ -313,7 +325,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="84">
+  <fonts count="88">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -324,6 +336,30 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -835,7 +871,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="88">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -924,6 +960,10 @@
     <xf numFmtId="49" fontId="81" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
     <xf numFmtId="164" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="83" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="85" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="87" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1146,8 +1186,8 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.35546875"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="14.9375"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="25.48828125"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="22.69921875"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="23.14453125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.03125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="23.5859375"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1190,10 +1230,10 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3">
@@ -1213,10 +1253,10 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/templates/DATA.xlsx
+++ b/templates/DATA.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="109">
   <si>
     <t>Name</t>
   </si>
@@ -316,6 +316,30 @@
   </si>
   <si>
     <t>003dL000007HO8RQAW</t>
+  </si>
+  <si>
+    <t>001dL00000OZBE5QAP</t>
+  </si>
+  <si>
+    <t>003dL000007HgtFQAS</t>
+  </si>
+  <si>
+    <t>001dL00000OZBdtQAH</t>
+  </si>
+  <si>
+    <t>003dL000007H8oMQAS</t>
+  </si>
+  <si>
+    <t>001dL00000OvSJgQAN</t>
+  </si>
+  <si>
+    <t>003dL000007NDIHQA4</t>
+  </si>
+  <si>
+    <t>001dL00000Ovo3uQAB</t>
+  </si>
+  <si>
+    <t>003dL000007NDAEQA4</t>
   </si>
 </sst>
 </file>
@@ -325,7 +349,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="88">
+  <fonts count="96">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -336,6 +360,54 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -871,7 +943,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="96">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -964,6 +1036,14 @@
     <xf numFmtId="49" fontId="85" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
     <xf numFmtId="164" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="87" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="89" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="91" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="93" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="95" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1186,8 +1266,8 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.35546875"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="14.9375"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="25.48828125"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.03125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="23.5859375"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.4765625"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="22.80859375"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1230,10 +1310,10 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3">
@@ -1253,10 +1333,10 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G3" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/templates/DATA.xlsx
+++ b/templates/DATA.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="113">
   <si>
     <t>Name</t>
   </si>
@@ -340,6 +340,18 @@
   </si>
   <si>
     <t>003dL000007NDAEQA4</t>
+  </si>
+  <si>
+    <t>001dL00000RtWJEQA3</t>
+  </si>
+  <si>
+    <t>003dL0000082lf5QAA</t>
+  </si>
+  <si>
+    <t>001dL00000Rum5gQAB</t>
+  </si>
+  <si>
+    <t>003dL0000082kUOQAY</t>
   </si>
 </sst>
 </file>
@@ -349,7 +361,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="96">
+  <fonts count="100">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -360,6 +372,30 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -943,7 +979,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="100">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1044,6 +1080,10 @@
     <xf numFmtId="49" fontId="93" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
     <xf numFmtId="164" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="95" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="97" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="99" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1266,8 +1306,8 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.35546875"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="14.9375"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="25.48828125"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="22.4765625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="22.80859375"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.80859375"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="22.5859375"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1310,10 +1350,10 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3">
@@ -1333,10 +1373,10 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/templates/DATA.xlsx
+++ b/templates/DATA.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="169">
   <si>
     <t>Name</t>
   </si>
@@ -340,6 +340,186 @@
   </si>
   <si>
     <t>003dL000007NDAEQA4</t>
+  </si>
+  <si>
+    <t>001dL00000Rve4gQAB</t>
+  </si>
+  <si>
+    <t>003dL0000082xgvQAA</t>
+  </si>
+  <si>
+    <t>001dL00000RwSNmQAN</t>
+  </si>
+  <si>
+    <t>003dL0000082xiXQAQ</t>
+  </si>
+  <si>
+    <t>001dL00000RwlSAQAZ</t>
+  </si>
+  <si>
+    <t>003dL00000834gnQAA</t>
+  </si>
+  <si>
+    <t>001dL00000RvswaQAB</t>
+  </si>
+  <si>
+    <t>003dL0000082xp1QAA</t>
+  </si>
+  <si>
+    <t>001dL00000RwkUCQAZ</t>
+  </si>
+  <si>
+    <t>003dL00000835xpQAA</t>
+  </si>
+  <si>
+    <t>001dL00000RxJLdQAN</t>
+  </si>
+  <si>
+    <t>003dL000008364HQAQ</t>
+  </si>
+  <si>
+    <t>001dL00000RwwYtQAJ</t>
+  </si>
+  <si>
+    <t>003dL000008370LQAQ</t>
+  </si>
+  <si>
+    <t>001dL00000RwfHmQAJ</t>
+  </si>
+  <si>
+    <t>003dL000008314gQAA</t>
+  </si>
+  <si>
+    <t>001dL00000Rx406QAB</t>
+  </si>
+  <si>
+    <t>003dL0000082zm4QAA</t>
+  </si>
+  <si>
+    <t>001dL00000Rvqj0QAB</t>
+  </si>
+  <si>
+    <t>003dL00000837BeQAI</t>
+  </si>
+  <si>
+    <t>001dL00000RxZyqQAF</t>
+  </si>
+  <si>
+    <t>003dL00000833T9QAI</t>
+  </si>
+  <si>
+    <t>001dL00000RxVxuQAF</t>
+  </si>
+  <si>
+    <t>003dL00000838hBQAQ</t>
+  </si>
+  <si>
+    <t>001dL00000Rv8gNQAR</t>
+  </si>
+  <si>
+    <t>003dL00000838ndQAA</t>
+  </si>
+  <si>
+    <t>001dL00000Rvm8rQAB</t>
+  </si>
+  <si>
+    <t>003dL00000838qrQAA</t>
+  </si>
+  <si>
+    <t>001dL00000RxhkXQAR</t>
+  </si>
+  <si>
+    <t>003dL0000083A33QAE</t>
+  </si>
+  <si>
+    <t>001dL00000Rx7XOQAZ</t>
+  </si>
+  <si>
+    <t>003dL00000837GoQAI</t>
+  </si>
+  <si>
+    <t>001dL00000RxhRCQAZ</t>
+  </si>
+  <si>
+    <t>003dL0000083AUTQA2</t>
+  </si>
+  <si>
+    <t>001dL00000RxTIKQA3</t>
+  </si>
+  <si>
+    <t>003dL0000082z6qQAA</t>
+  </si>
+  <si>
+    <t>001dL00000RxgDmQAJ</t>
+  </si>
+  <si>
+    <t>003dL0000083ApRQAU</t>
+  </si>
+  <si>
+    <t>001dL00000RxbVTQAZ</t>
+  </si>
+  <si>
+    <t>003dL0000083AsfQAE</t>
+  </si>
+  <si>
+    <t>001dL00000RxiKdQAJ</t>
+  </si>
+  <si>
+    <t>003dL0000083FAnQAM</t>
+  </si>
+  <si>
+    <t>001dL00000RxYSlQAN</t>
+  </si>
+  <si>
+    <t>003dL0000083EjOQAU</t>
+  </si>
+  <si>
+    <t>001dL00000Ry7zGQAR</t>
+  </si>
+  <si>
+    <t>003dL0000083AJHQA2</t>
+  </si>
+  <si>
+    <t>001dL00000RxPfgQAF</t>
+  </si>
+  <si>
+    <t>003dL0000083FcDQAU</t>
+  </si>
+  <si>
+    <t>001dL00000RwvQFQAZ</t>
+  </si>
+  <si>
+    <t>003dL0000083GjZQAU</t>
+  </si>
+  <si>
+    <t>001dL00000RyL6rQAF</t>
+  </si>
+  <si>
+    <t>003dL0000083Gq1QAE</t>
+  </si>
+  <si>
+    <t>001dL00000RxbfAQAR</t>
+  </si>
+  <si>
+    <t>003dL0000082xiYQAQ</t>
+  </si>
+  <si>
+    <t>001dL00000Ry2PDQAZ</t>
+  </si>
+  <si>
+    <t>003dL0000083H69QAE</t>
+  </si>
+  <si>
+    <t>001dL00000RymztQAB</t>
+  </si>
+  <si>
+    <t>003dL0000083LrJQAU</t>
+  </si>
+  <si>
+    <t>001dL00000RyQbuQAF</t>
+  </si>
+  <si>
+    <t>003dL0000083LsvQAE</t>
   </si>
 </sst>
 </file>
@@ -349,7 +529,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="96">
+  <fonts count="156">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -360,6 +540,366 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -943,7 +1483,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="156">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1044,6 +1584,66 @@
     <xf numFmtId="49" fontId="93" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
     <xf numFmtId="164" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="95" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="97" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="99" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="101" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="103" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="105" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="107" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="109" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="111" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="113" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="115" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="117" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="119" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="121" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="123" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="125" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="127" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="129" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="131" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="133" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="135" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="137" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="139" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="141" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="143" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="145" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="147" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="149" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="151" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="153" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="155" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1267,7 +1867,7 @@
     <col min="4" max="4" bestFit="true" customWidth="true" width="14.9375"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="25.48828125"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="22.4765625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="22.80859375"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="21.69921875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1310,10 +1910,10 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="G2" t="s">
-        <v>106</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3">
@@ -1333,10 +1933,10 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c r="G3" t="s">
-        <v>108</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/templates/DATA.xlsx
+++ b/templates/DATA.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="173">
   <si>
     <t>Name</t>
   </si>
@@ -520,6 +520,18 @@
   </si>
   <si>
     <t>003dL0000083LsvQAE</t>
+  </si>
+  <si>
+    <t>001dL00000T57hhQAB</t>
+  </si>
+  <si>
+    <t>003dL000008SswvQAC</t>
+  </si>
+  <si>
+    <t>001dL00000T519HQAR</t>
+  </si>
+  <si>
+    <t>003dL000008Sq7TQAS</t>
   </si>
 </sst>
 </file>
@@ -529,7 +541,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="156">
+  <fonts count="160">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -540,6 +552,30 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1483,7 +1519,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="160">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1644,6 +1680,10 @@
     <xf numFmtId="49" fontId="153" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
     <xf numFmtId="164" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="155" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="157" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="159" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1867,7 +1907,7 @@
     <col min="4" max="4" bestFit="true" customWidth="true" width="14.9375"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="25.48828125"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="22.4765625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="21.69921875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="22.36328125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1910,10 +1950,10 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3">
@@ -1933,10 +1973,10 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/templates/DATA.xlsx
+++ b/templates/DATA.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="217">
   <si>
     <t>Name</t>
   </si>
@@ -532,6 +532,138 @@
   </si>
   <si>
     <t>003dL000008Sq7TQAS</t>
+  </si>
+  <si>
+    <t>001dL00000T59uoQAB</t>
+  </si>
+  <si>
+    <t>003dL000008SpFuQAK</t>
+  </si>
+  <si>
+    <t>001dL00000T5EZWQA3</t>
+  </si>
+  <si>
+    <t>003dL000008StIEQA0</t>
+  </si>
+  <si>
+    <t>001dL00000T5BtOQAV</t>
+  </si>
+  <si>
+    <t>003dL000008SvUzQAK</t>
+  </si>
+  <si>
+    <t>001dL00000T55zpQAB</t>
+  </si>
+  <si>
+    <t>003dL000008SnAwQAK</t>
+  </si>
+  <si>
+    <t>001dL00000T5DjuQAF</t>
+  </si>
+  <si>
+    <t>003dL000008SvreQAC</t>
+  </si>
+  <si>
+    <t>001dL00000T5Jm5QAF</t>
+  </si>
+  <si>
+    <t>003dL000008SvtBQAS</t>
+  </si>
+  <si>
+    <t>001dL00000T5GTGQA3</t>
+  </si>
+  <si>
+    <t>003dL000008SpcVQAS</t>
+  </si>
+  <si>
+    <t>001dL00000T4mwfQAB</t>
+  </si>
+  <si>
+    <t>003dL000008SwcLQAS</t>
+  </si>
+  <si>
+    <t>001dL00000T4xQzQAJ</t>
+  </si>
+  <si>
+    <t>003dL000008SpWOQA0</t>
+  </si>
+  <si>
+    <t>001dL00000T58idQAB</t>
+  </si>
+  <si>
+    <t>003dL000008SxmvQAC</t>
+  </si>
+  <si>
+    <t>001dL00000T4cZEQAZ</t>
+  </si>
+  <si>
+    <t>003dL000008SoAAQA0</t>
+  </si>
+  <si>
+    <t>001dL00000T5bELQAZ</t>
+  </si>
+  <si>
+    <t>003dL000008SymDQAS</t>
+  </si>
+  <si>
+    <t>001dL00000T5eFSQAZ</t>
+  </si>
+  <si>
+    <t>003dL000008SuzvQAC</t>
+  </si>
+  <si>
+    <t>001dL00000T5cggQAB</t>
+  </si>
+  <si>
+    <t>003dL000008SzojQAC</t>
+  </si>
+  <si>
+    <t>001dL00000T5hXGQAZ</t>
+  </si>
+  <si>
+    <t>003dL000008SwVuQAK</t>
+  </si>
+  <si>
+    <t>001dL00000T4pL1QAJ</t>
+  </si>
+  <si>
+    <t>003dL000008Svd6QAC</t>
+  </si>
+  <si>
+    <t>001dL00000T4HMvQAN</t>
+  </si>
+  <si>
+    <t>003dL000008T0pdQAC</t>
+  </si>
+  <si>
+    <t>001dL00000T5ngvQAB</t>
+  </si>
+  <si>
+    <t>003dL000008Sup5QAC</t>
+  </si>
+  <si>
+    <t>001dL00000T5daWQAR</t>
+  </si>
+  <si>
+    <t>003dL000008T1vNQAS</t>
+  </si>
+  <si>
+    <t>001dL00000T48cfQAB</t>
+  </si>
+  <si>
+    <t>003dL000008SsKEQA0</t>
+  </si>
+  <si>
+    <t>001dL00000T5saBQAR</t>
+  </si>
+  <si>
+    <t>003dL000008T1dsQAC</t>
+  </si>
+  <si>
+    <t>001dL00000T6IPxQAN</t>
+  </si>
+  <si>
+    <t>003dL000008StgSQAS</t>
   </si>
 </sst>
 </file>
@@ -541,7 +673,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="160">
+  <fonts count="204">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -552,6 +684,270 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1519,7 +1915,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="204">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1684,6 +2080,50 @@
     <xf numFmtId="49" fontId="157" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
     <xf numFmtId="164" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="159" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="161" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="163" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="165" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="167" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="169" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="171" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="173" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="175" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="177" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="179" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="181" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="183" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="185" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="187" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="189" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="191" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="193" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="195" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="197" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="199" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="201" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="203" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1906,8 +2346,8 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.35546875"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="14.9375"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="25.48828125"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="22.4765625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="22.36328125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.25390625"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="22.03125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1950,10 +2390,10 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>169</v>
+        <v>213</v>
       </c>
       <c r="G2" t="s">
-        <v>170</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3">
@@ -1973,10 +2413,10 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>171</v>
+        <v>215</v>
       </c>
       <c r="G3" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/templates/DATA.xlsx
+++ b/templates/DATA.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="221">
   <si>
     <t>Name</t>
   </si>
@@ -664,6 +664,18 @@
   </si>
   <si>
     <t>003dL000008StgSQAS</t>
+  </si>
+  <si>
+    <t>001dL00000T7OhfQAF</t>
+  </si>
+  <si>
+    <t>003dL000008TN4hQAG</t>
+  </si>
+  <si>
+    <t>001dL00000T7TFwQAN</t>
+  </si>
+  <si>
+    <t>003dL000008TITGQA4</t>
   </si>
 </sst>
 </file>
@@ -673,7 +685,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="204">
+  <fonts count="208">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -684,6 +696,30 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1915,7 +1951,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="208">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2124,6 +2160,10 @@
     <xf numFmtId="49" fontId="201" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
     <xf numFmtId="164" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="203" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="205" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="207" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2346,8 +2386,8 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.35546875"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="14.9375"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="25.48828125"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="22.25390625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="22.03125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.6953125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="22.5859375"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2390,10 +2430,10 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3">
@@ -2413,10 +2453,10 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G3" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/templates/DATA.xlsx
+++ b/templates/DATA.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="225">
   <si>
     <t>Name</t>
   </si>
@@ -676,6 +676,18 @@
   </si>
   <si>
     <t>003dL000008TITGQA4</t>
+  </si>
+  <si>
+    <t>001dL00000TkfvVQAR</t>
+  </si>
+  <si>
+    <t>003dL000008cghaQAA</t>
+  </si>
+  <si>
+    <t>001dL00000Tkfx7QAB</t>
+  </si>
+  <si>
+    <t>003dL000008cWYxQAM</t>
   </si>
 </sst>
 </file>
@@ -685,7 +697,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="208">
+  <fonts count="212">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -696,6 +708,30 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1951,7 +1987,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="212">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2164,6 +2200,10 @@
     <xf numFmtId="49" fontId="205" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
     <xf numFmtId="164" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="207" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="209" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="211" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2386,8 +2426,8 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.35546875"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="14.9375"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="25.48828125"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="22.6953125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="22.5859375"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="21.5859375"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="23.02734375"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2430,10 +2470,10 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="G2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3">
@@ -2453,10 +2493,10 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G3" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/templates/DATA.xlsx
+++ b/templates/DATA.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>Name</t>
   </si>
@@ -94,6 +94,54 @@
   </si>
   <si>
     <t>003dL000008d7Q1QAI</t>
+  </si>
+  <si>
+    <t>001dL00000TtwibQAB</t>
+  </si>
+  <si>
+    <t>003dL000008etZ3QAI</t>
+  </si>
+  <si>
+    <t>001dL00000TtsC1QAJ</t>
+  </si>
+  <si>
+    <t>003dL000008etafQAA</t>
+  </si>
+  <si>
+    <t>001dL00000ULnviQAD</t>
+  </si>
+  <si>
+    <t>003dL000008mX8VQAU</t>
+  </si>
+  <si>
+    <t>001dL00000ULsXkQAL</t>
+  </si>
+  <si>
+    <t>003dL000008me1lQAA</t>
+  </si>
+  <si>
+    <t>001dL00000V52owQAB</t>
+  </si>
+  <si>
+    <t>003dL000008zCm1QAE</t>
+  </si>
+  <si>
+    <t>001dL00000V5NJyQAN</t>
+  </si>
+  <si>
+    <t>003dL000008zCndQAE</t>
+  </si>
+  <si>
+    <t>001dL00000V5BXpQAN</t>
+  </si>
+  <si>
+    <t>003dL000008zF2LQAU</t>
+  </si>
+  <si>
+    <t>001dL00000V625JQAR</t>
+  </si>
+  <si>
+    <t>003dL000008zF3xQAE</t>
   </si>
 </sst>
 </file>
@@ -103,7 +151,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="30">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -114,6 +162,102 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -205,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="30">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -224,6 +368,22 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -446,8 +606,8 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.35546875"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="14.9375"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="25.48828125"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.13671875"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="23.03125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.69921875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="22.03125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -490,10 +650,10 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -513,10 +673,10 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/templates/DATA.xlsx
+++ b/templates/DATA.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
   <si>
     <t>Name</t>
   </si>
@@ -142,6 +142,30 @@
   </si>
   <si>
     <t>003dL000008zF3xQAE</t>
+  </si>
+  <si>
+    <t>001dL00000V6ZFmQAN</t>
+  </si>
+  <si>
+    <t>003dL000008zCipQAE</t>
+  </si>
+  <si>
+    <t>001dL00000V5JvPQAV</t>
+  </si>
+  <si>
+    <t>003dL000008z1SlQAI</t>
+  </si>
+  <si>
+    <t>001dL00000V5Vm6QAF</t>
+  </si>
+  <si>
+    <t>003dL000008zNXlQAM</t>
+  </si>
+  <si>
+    <t>001dL00000V6E1eQAF</t>
+  </si>
+  <si>
+    <t>003dL000008zDIIQA2</t>
   </si>
 </sst>
 </file>
@@ -151,7 +175,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="38">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -162,6 +186,54 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -349,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="38">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -384,6 +456,14 @@
     <xf numFmtId="49" fontId="27" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
     <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="29" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -606,7 +686,7 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.35546875"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="14.9375"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="25.48828125"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="22.69921875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.80859375"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="22.03125"/>
   </cols>
   <sheetData>
@@ -650,10 +730,10 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -673,10 +753,10 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/templates/DATA.xlsx
+++ b/templates/DATA.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
   <si>
     <t>Name</t>
   </si>
@@ -166,6 +166,30 @@
   </si>
   <si>
     <t>003dL000008zDIIQA2</t>
+  </si>
+  <si>
+    <t>001dL00000V6Z4UQAV</t>
+  </si>
+  <si>
+    <t>003dL000008zO41QAE</t>
+  </si>
+  <si>
+    <t>001dL00000V5fwFQAR</t>
+  </si>
+  <si>
+    <t>003dL000008zK23QAE</t>
+  </si>
+  <si>
+    <t>001dL00000V6CmFQAV</t>
+  </si>
+  <si>
+    <t>003dL000008zPkrQAE</t>
+  </si>
+  <si>
+    <t>001dL00000V6FkAQAV</t>
+  </si>
+  <si>
+    <t>003dL000008zOyWQAU</t>
   </si>
 </sst>
 </file>
@@ -175,7 +199,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="46">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -186,6 +210,54 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -421,7 +493,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="46">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -464,6 +536,14 @@
     <xf numFmtId="49" fontId="35" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
     <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="37" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -686,8 +766,8 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.35546875"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="14.9375"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="25.48828125"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="22.80859375"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="22.03125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.140625"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="23.02734375"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -730,10 +810,10 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +833,10 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/templates/DATA.xlsx
+++ b/templates/DATA.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
   <si>
     <t>Name</t>
   </si>
@@ -190,6 +190,30 @@
   </si>
   <si>
     <t>003dL000008zOyWQAU</t>
+  </si>
+  <si>
+    <t>001dL00000V6jdJQAR</t>
+  </si>
+  <si>
+    <t>003dL000008zKp6QAE</t>
+  </si>
+  <si>
+    <t>001dL00000V6RzpQAF</t>
+  </si>
+  <si>
+    <t>003dL000008zGGBQA2</t>
+  </si>
+  <si>
+    <t>001dL00000V6TzzQAF</t>
+  </si>
+  <si>
+    <t>003dL000008zPEgQAM</t>
+  </si>
+  <si>
+    <t>001dL00000V6dw6QAB</t>
+  </si>
+  <si>
+    <t>003dL000008zQozQAE</t>
   </si>
 </sst>
 </file>
@@ -199,7 +223,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="46">
+  <fonts count="54">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -210,6 +234,54 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -493,7 +565,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="54">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -544,6 +616,14 @@
     <xf numFmtId="49" fontId="43" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
     <xf numFmtId="164" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="45" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="47" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="49" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="51" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="53" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -766,8 +846,8 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.35546875"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="14.9375"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="25.48828125"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.140625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="23.02734375"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.4765625"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="22.5859375"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -810,10 +890,10 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -833,10 +913,10 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/templates/DATA.xlsx
+++ b/templates/DATA.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="75">
   <si>
     <t>Name</t>
   </si>
@@ -214,6 +214,30 @@
   </si>
   <si>
     <t>003dL000008zQozQAE</t>
+  </si>
+  <si>
+    <t>001dL00000VS5kTQAT</t>
+  </si>
+  <si>
+    <t>003dL00000944xrQAA</t>
+  </si>
+  <si>
+    <t>001dL00000VS5ZCQA1</t>
+  </si>
+  <si>
+    <t>003dL00000947nJQAQ</t>
+  </si>
+  <si>
+    <t>001dL00000VSf9dQAD</t>
+  </si>
+  <si>
+    <t>003dL0000094GVdQAM</t>
+  </si>
+  <si>
+    <t>001dL00000VSaSHQA1</t>
+  </si>
+  <si>
+    <t>003dL0000094FeRQAU</t>
   </si>
 </sst>
 </file>
@@ -223,7 +247,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="54">
+  <fonts count="62">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -234,6 +258,54 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -565,7 +637,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="62">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -624,6 +696,14 @@
     <xf numFmtId="49" fontId="51" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
     <xf numFmtId="164" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="53" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="55" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="57" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="61" fillId="0" borderId="1" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -846,8 +926,8 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.35546875"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="14.9375"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="25.48828125"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="22.4765625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="22.5859375"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.69921875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="22.921875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -890,10 +970,10 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3">
@@ -913,10 +993,10 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
